--- a/内部設計/ファイル構成一覧表/05_ファイル構成一覧表_けいたんシステム.xlsx
+++ b/内部設計/ファイル構成一覧表/05_ファイル構成一覧表_けいたんシステム.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\内部設計\ファイル構成一覧表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D029D91-0F4A-4207-AE85-956DDB1CA851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30F4C29-9B8B-418B-A1F9-6547CCC74BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>drink.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>drinkRecode.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -755,6 +751,10 @@
     <rPh sb="3" eb="5">
       <t>ハラヤマ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>drinkRegist.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1234,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1285,7 +1285,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1306,7 +1306,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1327,7 +1327,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1348,7 +1348,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1369,7 +1369,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1390,7 +1390,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1411,7 +1411,7 @@
         <v>21</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1432,7 +1432,7 @@
         <v>24</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1453,7 +1453,7 @@
         <v>27</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1474,7 +1474,7 @@
         <v>29</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1495,7 +1495,7 @@
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1516,7 +1516,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1537,7 +1537,7 @@
         <v>39</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1558,7 +1558,7 @@
         <v>40</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1579,7 +1579,7 @@
         <v>41</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1600,7 +1600,7 @@
         <v>42</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1618,10 +1618,10 @@
         <v>45</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1639,10 +1639,10 @@
         <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1660,10 +1660,10 @@
         <v>47</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1678,13 +1678,13 @@
         <v>44</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1699,13 +1699,13 @@
         <v>44</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1720,13 +1720,13 @@
         <v>44</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1741,13 +1741,13 @@
         <v>44</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1762,13 +1762,13 @@
         <v>44</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1777,19 +1777,19 @@
         <v>25</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="E27" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="F27" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="G27" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1798,19 +1798,19 @@
         <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="E28" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1819,19 +1819,19 @@
         <v>27</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="E29" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1840,19 +1840,19 @@
         <v>28</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="E30" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1861,19 +1861,19 @@
         <v>29</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="E31" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1882,19 +1882,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>62</v>
-      </c>
       <c r="E32" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1903,19 +1903,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="E33" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1924,19 +1924,19 @@
         <v>32</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="E34" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1945,19 +1945,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="E35" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1966,19 +1966,19 @@
         <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="G36" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1987,19 +1987,19 @@
         <v>35</v>
       </c>
       <c r="C37" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="E37" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2008,19 +2008,19 @@
         <v>36</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="E38" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2029,19 +2029,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="E39" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2050,19 +2050,19 @@
         <v>38</v>
       </c>
       <c r="C40" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>81</v>
-      </c>
       <c r="E40" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2071,19 +2071,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="E41" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2092,19 +2092,19 @@
         <v>40</v>
       </c>
       <c r="C42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>81</v>
-      </c>
       <c r="E42" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2113,19 +2113,19 @@
         <v>41</v>
       </c>
       <c r="C43" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>81</v>
-      </c>
       <c r="E43" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2146,21 +2146,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2331,32 +2316,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2373,4 +2348,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/内部設計/ファイル構成一覧表/05_ファイル構成一覧表_けいたんシステム.xlsx
+++ b/内部設計/ファイル構成一覧表/05_ファイル構成一覧表_けいたんシステム.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\内部設計\ファイル構成一覧表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlusDojo6月作成ドキュメントテンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30F4C29-9B8B-418B-A1F9-6547CCC74BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8474B321-EB8F-4714-8387-7ECCD5EA8C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="19670" yWindow="370" windowWidth="17990" windowHeight="9180" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="107">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -365,6 +365,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>drink.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>drinkRecode.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -754,7 +758,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>drinkRegist.jsp</t>
+    <t>common.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全画面共通css</t>
+    <rPh sb="0" eb="5">
+      <t>ゼンガメンキョウツウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -869,18 +880,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -917,6 +922,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1234,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1248,896 +1256,905 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>99</v>
+      <c r="G3" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>98</v>
+      <c r="G4" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="14">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="14" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="D11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="4">
-        <f t="shared" si="0"/>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="D14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="12" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="14">
+      <c r="B16" s="12">
         <f>ROW()-2</f>
         <v>14</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="14">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="15" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="10">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="C35" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="6">
+        <v>34</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="4">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="C39" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="12">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="10">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="C43" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="10">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="C44" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="6">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="8" t="s">
+      <c r="F44" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="10">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="4">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="12">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="12">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="8">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="4">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="6">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="6">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="8">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="14">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="4">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="12">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="12">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="4">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="6">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="6">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="8">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="14">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="12">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="12">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="3">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
